--- a/data/trans_camb/P54_A_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,98</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; -6,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; -6,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,37; -8,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,25; -7,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,13; -9,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,82; -9,9</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,57</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,46; -4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,77; -3,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,67; -16,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,88; -13,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,43; -13,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,28; -12,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,76%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -66,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -47,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -72,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -58,84</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,48</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; -1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,61; -4,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,09; -10,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,1; -9,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,59; -8,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,35; -8,32</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,25%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -65,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -54,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -69,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -69,65</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,59</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,15; -5,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,29; -3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,4; -17,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,55; -18,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,16; -14,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,17; -13,79</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,27%</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -0,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -79,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -78,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -85,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -79,66</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,21</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,82; -5,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,58; -5,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,76; -5,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,81; -8,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,39; -7,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,29; -8,74</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,83%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 155,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -61,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,7; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,02; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,01</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,42</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,37</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,78; -8,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; -8,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,77; -16,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,53; -15,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,41; -13,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,37; -13,54</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,68%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,94%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -87,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -84,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,66; -86,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,9; -86,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,65; -90,61</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,65; -90,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
